--- a/app/config/tables/census/forms/census/census.xlsx
+++ b/app/config/tables/census/forms/census/census.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Outreach\app-designer-master\app\config\tables\census\forms\census\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77748826-2456-4B98-AC2C-850903351A0B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9ADBC4-1FDB-4EE7-87B5-ED429CD0AC99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>setting_name</t>
   </si>
@@ -93,6 +93,17 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>display.prompt.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is your name?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Are you 18 years or older?
+</t>
   </si>
 </sst>
 </file>
@@ -135,7 +146,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -182,11 +193,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1E4E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1E4E5"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -204,6 +226,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,10 +580,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72AF5ED1-53FE-449B-946C-C5998CB8A713}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,9 +591,10 @@
     <col min="1" max="1" width="23.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -575,8 +604,11 @@
       <c r="C1" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -584,8 +616,11 @@
       <c r="C2" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D2" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>13</v>
       </c>
@@ -594,6 +629,9 @@
       </c>
       <c r="C3" s="4" t="s">
         <v>15</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -605,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B70B411-CF20-4C47-94B0-8DB6AD61DA84}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
